--- a/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>28,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,09</t>
+          <t>26,61</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>23,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,11</t>
+          <t>14,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>160,94%</t>
+          <t>21,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>130,95%</t>
+          <t>374,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>75,31%</t>
+          <t>192,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>119,13%</t>
+          <t>117,26%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>51,5%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>65,57%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,54; 30,01</t>
+          <t>12,92; 43,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 30,09</t>
+          <t>9,58; 45,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 28,89</t>
+          <t>4,3; 44,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,52; 49,65</t>
+          <t>-6,76; 35,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>45,26; 424,61</t>
+          <t>-2,94; 49,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,81; 348,29</t>
+          <t>62,41; 1781,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,93; 189,79</t>
+          <t>29,86; 882,35</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>34,26; 307,72</t>
+          <t>9,43; 482,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; 259,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-9,06; 327,99</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,02</t>
+          <t>8,69</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,52</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,93</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,29</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>116,03%</t>
+          <t>6,04</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>84,79%</t>
+          <t>116,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>125,02%</t>
+          <t>64,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>122,69%</t>
+          <t>112,97%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,31%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,74%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,53; 16,14</t>
+          <t>2,36; 16,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 11,33</t>
+          <t>-1,01; 12,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 14,89</t>
+          <t>2,92; 16,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,27; 18,29</t>
+          <t>-1,48; 14,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>23,27; 249,76</t>
+          <t>-8,95; 16,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>13,0; 206,71</t>
+          <t>11,65; 358,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,48; 239,67</t>
+          <t>-9,88; 215,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>48,42; 241,61</t>
+          <t>18,66; 291,92</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 154,27</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-35,51; 111,24</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>-3,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>19,61%</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>88,89%</t>
+          <t>-35,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-3,26%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>18,98%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,17</t>
+          <t>-3,5; 9,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 3,55</t>
+          <t>-15,26; 2,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 12,59</t>
+          <t>-10,03; 9,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 6,86</t>
+          <t>-10,05; 7,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 122,65</t>
+          <t>-6,93; 10,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-66,25; 63,81</t>
+          <t>-37,99; 281,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 278,58</t>
+          <t>-83,03; 49,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-43,82; 103,88</t>
+          <t>-60,86; 201,76</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-60,96; 121,6</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,38; 142,16</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,82</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>95,73%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>63,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>104,43%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>102,35%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,86; 13,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,49; 14,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,79; 19,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,47; 169,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,87; 128,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>50,59; 176,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>53,85; 182,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>9,05</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,8</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,67</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>126,65%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>46,66%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>83,6%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,8%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>38,38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 13,54</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,69; 9,8</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,99; 14,36</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,36; 10,48</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 15,75</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>42,72; 253,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,68; 131,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,82; 179,72</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-7,61; 90,92</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 97,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>28,5</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>26,61</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>23,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>14,13</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>21,14</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>374,39%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>192,25%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>117,26%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>51,5%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>65,57%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>28.50449455681893</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>26.1126998010337</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>24.68422658899166</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>16.17359001684387</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>21.98403305588962</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>3.743886946370155</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.991467472384675</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.257601190926741</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5923457519168615</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.7153584133698779</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>12,92; 43,73</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,58; 45,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>4,3; 44,52</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 35,56</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 49,86</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>62,41; 1781,84</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>29,86; 882,35</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>9,43; 482,98</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-16,5; 259,57</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 327,99</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>12.91606769012251</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>9.206211200930994</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>5.721514584260367</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-3.819511306144426</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.316333620842718</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.6241010516678493</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.3394663679808348</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1212629208950063</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.1233594269606365</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.05448622342074861</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>43.72686510860422</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>44.62856226101734</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>44.80462576852776</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>37.83716118229216</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>50.86092066322505</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>17.81844574540069</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>8.666582064530994</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>4.622938547797948</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.476256242537221</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>3.443030100906654</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,69</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,01</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,32</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,04</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>116,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>64,42%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>112,97%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>47,31%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>28,74%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>2,36; 16,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 12,85</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,92; 16,9</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 14,21</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,95; 16,3</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>11,65; 358,58</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 215,61</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>18,66; 291,92</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 154,27</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-35,51; 111,24</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.686265046334023</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.14425056548723</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>9.594771136037378</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.179611447604231</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>5.533523250349156</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.169203884054079</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.6805285831844941</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.064159018549554</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.4591448637387545</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.26090286948173</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,56</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,38</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,33</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>47,52%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-35,11%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>26,49%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-3,26%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>18,98%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2.357766773703002</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.6230276423481513</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.904632300106001</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.663901805895557</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-9.254942264682017</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.116542556362879</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.06958790028092882</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.1133066734245778</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1126332331317886</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.358063492016509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,5; 9,53</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-15,26; 2,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-10,03; 9,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-10,05; 7,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 10,15</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-37,99; 281,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,03; 49,65</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-60,86; 201,76</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-60,96; 121,6</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-39,38; 142,16</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>16.06219174633425</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.9566452541946</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>16.25512371861796</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>14.27745472316526</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.93977930777145</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>3.585759022015414</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.254595484996535</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.818777260703249</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.464274153931131</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.080665634641895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>3.142521755905431</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-3.05576516812074</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.618106637306343</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.7508908044724469</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>1.733724049819836</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4751959420795095</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.326450885817495</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2996346938833275</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.07450166131132104</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.1437614508463641</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-3.49826151065217</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-15.28478505402128</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-11.50889769773045</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-11.10810140348249</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-7.249028189178721</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.3799352465459891</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8410862860901739</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.6063348055409122</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6303374905166237</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.4248572096056583</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.526974173323968</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.875985234303919</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>9.399229936308732</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>6.295109719037296</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.43276603563484</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>2.815058549494691</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.5434766270936052</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>2.196417585528524</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.17827829355812</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.273742677202653</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>9,05</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>4,67</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>7,65</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>126,65%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>46,66%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>83,6%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>32,8%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>38,38%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>4,36; 13,54</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,69; 9,8</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,99; 14,36</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,36; 10,48</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-0,75; 15,75</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>42,72; 253,22</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-6,68; 131,19</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 179,72</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-7,61; 90,92</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-3,66; 97,99</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>9.049833038758932</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>5.003823659429789</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.04009437281937</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.07408727236233</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.468332768963301</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.266508954342271</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.5143834806861942</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.8769673172666448</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3570680414159191</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3783688613636225</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.355360317712171</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.3961085431527462</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>3.103592375469284</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.9914912104620603</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.8672277151358989</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.4271571049822075</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03724159194812998</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.2028276891093247</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.07632267992039696</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.05053620622717463</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>13.54491580963121</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>9.984977319991581</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>14.57830901021848</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>11.05998372212101</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>15.30656588814408</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>2.532175623963149</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.376256416016523</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.899996531662404</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9491012157091504</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.9506053008225048</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
